--- a/ROSORPlugins/PETER_ROSOR_flightline_creator/Typical-Required-overlap-line-spacing.xlsx
+++ b/ROSORPlugins/PETER_ROSOR_flightline_creator/Typical-Required-overlap-line-spacing.xlsx
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,12 +81,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,12 +125,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -152,6 +150,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>271440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="271440" y="897480"/>
+          <a:ext cx="5487840" cy="3584520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -160,65 +200,65 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -230,5 +270,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ROSORPlugins/PETER_ROSOR_flightline_creator/Typical-Required-overlap-line-spacing.xlsx
+++ b/ROSORPlugins/PETER_ROSOR_flightline_creator/Typical-Required-overlap-line-spacing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve">Drone</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">60-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFOV with 24 mm lens is calculated and measured to be closer to 75 degreees, somwhere between 82 and the 72</t>
   </si>
 </sst>
 </file>
@@ -155,15 +158,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:colOff>459000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:colOff>394200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -176,8 +179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="271440" y="897480"/>
-          <a:ext cx="5487840" cy="3584520"/>
+          <a:off x="459000" y="1238400"/>
+          <a:ext cx="5487120" cy="3584160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -197,10 +200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,6 +265,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
